--- a/HSNUAlumni.Web/App_Data/uploads/contactsTemplate.xlsx
+++ b/HSNUAlumni.Web/App_Data/uploads/contactsTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ylee\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="22992" windowHeight="9528"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,28 +404,28 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>620</v>
       </c>
@@ -542,7 +542,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -554,7 +554,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HSNUAlumni.Web/App_Data/uploads/contactsTemplate.xlsx
+++ b/HSNUAlumni.Web/App_Data/uploads/contactsTemplate.xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ylee\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="22992" windowHeight="9528"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="解說" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="334">
   <si>
     <t>ClassId</t>
   </si>
@@ -80,95 +80,1255 @@
     <t>保持聯絡</t>
   </si>
   <si>
-    <t>王大衛</t>
-  </si>
-  <si>
-    <t>David Wong</t>
+    <t>IamLine.Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENDER (性別) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">男 - TRUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">女 - FALSE </t>
+  </si>
+  <si>
+    <t>Status (聯絡狀態) 限定在三類</t>
+  </si>
+  <si>
+    <t xml:space="preserve">失聯 </t>
+  </si>
+  <si>
+    <t>已歿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeatNumber (座號) - 若不知 則設為 0 </t>
+  </si>
+  <si>
+    <t>不要更改 表單名 或欄位名 否則 系統認不出來</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClassId 和 Name 必須要填 其他可空白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birthday(生日) - 沒有預設 format 可設為任何一種字串 (With US system, it prefers MM/dd/yyyy) </t>
+  </si>
+  <si>
+    <t>江克成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林浩民</t>
+  </si>
+  <si>
+    <t>陳逸彬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉吾誠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李世豐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗祺仁(耀云)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳翊中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳憲呈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭令立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>張基雄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳世傑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李文忠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周溫庭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳城(紀宏)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇侯彰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊挺宏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李廖耿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇宜哲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭智銘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳國宏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹書銘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾建誠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳俊良</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳達聞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳宗倫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉維國</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李衍儒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇哲男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>張瑞哲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃逸駿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐雲嘯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施博祺(綦)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃任杰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒天聖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯毓駿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳家維</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>張文一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳智豪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余宗翰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫宇文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王文良</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃哲民</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范姜泰基</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳皓朋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>童尚愷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴立峰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝其濬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周賢勳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范盛保</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉啟文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭久原</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>張智富</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉家璽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂智豪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘英德</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李應亨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳明偉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐欽哲(苙菖)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉彥華</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕭世昀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯裕峰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Henry Lee</t>
+  </si>
+  <si>
+    <t>1969/02/24</t>
+  </si>
+  <si>
+    <t>1970/10/8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1968/10/25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dec. 13</t>
+  </si>
+  <si>
+    <t>1971/04/02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1970/10/27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1971/05/15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1970/10/14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1971/03/15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1970/01/07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1971/6/3</t>
+  </si>
+  <si>
+    <t>桃園地檢署檢察官--Turtle認養</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美國</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加拿大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>書記官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>career 雜誌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2422-7077</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(03)333-8668#293</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-3393 2168</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+31 40 2902260</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-26568888 ext.546</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+86 13520 754087</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05-5843600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02 82267666#22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1-416-594-5245</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06 5110123#6630</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-22616714#1121</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-27316790</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">+886 2 25560972 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-89191268*626</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02 55898957</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+886 2 26963000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+86-755-28828056</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2380-2671</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02 2712 8800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+8610-85180006#3763</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02 5573 0672</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(06) 2727175 #352</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02 2631 3456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+86-591-88012100(Ext.230)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-27021792</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2915-8239</t>
+  </si>
+  <si>
+    <t>2276-6236</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-8223537</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-5881428</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-23577564</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-29841941</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+886 2 22541719</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28920191</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1-416-929-6220</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02 27519977</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+886 2 29362744</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+886 2 87723962</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-29026843</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-26275104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02 29248161</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+886 2 29215355</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-27071184</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02 8751 9070</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-29772682</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-22591995</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-27617263</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02 2621 3929</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-22542280</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>049-2913684</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-29713936</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0228235415</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0931-601-498</t>
+  </si>
+  <si>
+    <t>0937184511</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0989-064017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0955-555-817</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0936-996-495</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0930847948</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0968741682</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0922495808</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0922862737</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +31-642248904</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0936150695</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0988051357</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0960704288</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0916-139-179</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0932314788</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0935918398</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    0917719898</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0938004938</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0937500429</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0928898613</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0932908261</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0980989989</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0917234752</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0937-455-080</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0920916000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0930387181</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0920826623</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+86-13823115911</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0920965792</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0931509922</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0930775573</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0930865591</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1-202-255-4649</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0936 142821</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0922417193</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0936796331</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0936037296</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0920329616</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0932378034</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0919286956</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0936188247</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0939-923-045</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0910855218</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0930-184-867 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0937-973-394</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0917185325</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0932015849</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+（86）13816137557</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>paul.lin.0224@gmail.com</t>
+  </si>
+  <si>
+    <t>yibin411@yahoo.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keithliu@taishinbank.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nacy6672281@yahoo.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alex86610511@yahoo.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>andrewc25@pcome.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>king.chen@fubon.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>my8849@ms37.hinet.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a535382@yahoo.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>franco.lee@foxconn.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max.wu@nhjeans.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>peacesu@hotmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>andrewkitaro@hotmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmpeng@yahoo.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuming.chan@msa.hinet.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anselmika@yahoo.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancetwc@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wkliu@hotmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d97322006@ntu.edu.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kojumpko@hotmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rejer1234@yahoo.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kennyhuang59@yahoo.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yetw7@yahoo.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vincent@air-bag.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uv105mm@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>larry_ko@innodisk.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dennis@mail.mfc.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chung.wai@msa.hinet.net</t>
+  </si>
+  <si>
+    <t>tsung618@yahoo.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs0618@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kevinwangdc@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpsm@mail2000.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>haopeng.chen@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ivantiger6688@yahoo.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lloydfantw@seed.net.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu8242@yahoo.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eddy188247@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chifu@vot.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keifer_liu@wanhai.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>涂二姐</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">  kinfrog@yahoo.com.tw</t>
+    </r>
   </si>
   <si>
     <t>leeyinheng@yahoo.com</t>
-  </si>
-  <si>
-    <t>facebook.count</t>
-  </si>
-  <si>
-    <t>IamLine.Count</t>
-  </si>
-  <si>
-    <t>BigApple</t>
-  </si>
-  <si>
-    <t>CTO</t>
-  </si>
-  <si>
-    <t>台北市 大安區 哈哈街 114 號 10 樓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is demo contact </t>
-  </si>
-  <si>
-    <t>陳公主</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tina Chen </t>
-  </si>
-  <si>
-    <t>ASFA@yahoo.com</t>
-  </si>
-  <si>
-    <t>facebook.count2</t>
-  </si>
-  <si>
-    <t>AFD</t>
-  </si>
-  <si>
-    <t>CEO</t>
-  </si>
-  <si>
-    <t>台北市 松山區 哈哈街 114 號 10 樓</t>
-  </si>
-  <si>
-    <t>世界貿易</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is demo contact 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENDER (性別) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">男 - TRUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">女 - FALSE </t>
-  </si>
-  <si>
-    <t>Status (聯絡狀態) 限定在三類</t>
-  </si>
-  <si>
-    <t xml:space="preserve">失聯 </t>
-  </si>
-  <si>
-    <t>已歿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SeatNumber (座號) - 若不知 則設為 0 </t>
-  </si>
-  <si>
-    <t>不要更改 表單名 或欄位名 否則 系統認不出來</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClassId 和 Name 必須要填 其他可空白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birthday(生日) - 沒有預設 format 可設為任何一種字串 (With US system, it prefers MM/dd/yyyy) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mingwei@judicial.gov.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>joffery.hsu@msa.hinet.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arthur@adk.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>henry.hsiao@pru.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hou09092003@hotmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vincentc1410@hotmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancetwc@hotmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yenju888@hotmail.com</t>
+  </si>
+  <si>
+    <t>uv105mm@hotmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yck0705@hotmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEMC</t>
+  </si>
+  <si>
+    <t>南山人壽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞實投資</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSDEU B.V., Esp 131, 5633 AA Eindhoven, The Netherlands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年興紡織</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜成電線電纜股份有限公司（負責人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raycore (Taiwan)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapInfo</t>
+  </si>
+  <si>
+    <t>光洋應用材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ph.D. Student, Department of Political Science, National Taiwan University.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deloitte Consulting BJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大朋電子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GE Capital</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜鼎國際</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麥豐密封科技股份有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>501 Hungerford Drive #375, Rockville, MD 20850, U.S.A.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘋果日報</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海唐码城邦 / 北京市東城區東長安街1號東方廣場辦公樓西3座9層901室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠傳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>崑山大學</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>東森房屋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>萬海航運(內湖)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2210 JAMARA LN HOUSTON TX 77077 USA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10658 臺北市大安區信義路3段147巷15弄3號5樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北縣新店市新坡一街85號3F</t>
+  </si>
+  <si>
+    <t>基隆市中正區信三路6號2F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園縣蘆竹鄉中山路59-5號11樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北市文山區秀明路一段79巷5弄19號6F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北市復興南路一段107巷5弄25-2號2F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北市民權東路3段103巷5弄23號3F-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮市化道路40巷1號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新竹縣新埔鎮四座里楊新路1段13巷2弄6號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北市金山南路一段110巷19弄2號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市內湖區堤頂大道二段407巷22號8樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北縣三重市富華街189號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北縣板橋市民生路三段66號5樓之3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市北投區中和街382巷2弄5號4F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>330 Wellesley St E, Toronto ON, M4X 1H3, Canada</t>
+  </si>
+  <si>
+    <t>台北市忠孝東路三段251巷8弄16號6F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北縣永和市竹林路25巷17弄12號4F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市文山區興隆路四段179巷8號3樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市國鼎一街25號6F-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市仁愛路三段53-6號5樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北縣泰山鄉明志路三段145巷8弄20號4F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市內湖路一段737巷110號3樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北縣永和市福和路189號8樓之1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北縣中和市忠孝街58巷16弄9號4F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北縣永和市永和路一段156號6樓之3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北縣五股工業區五權五路 41號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市撫遠街394巷7號4F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北市士林區中山北路六段290巷7弄33號7F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">台北縣三重市光明路84 巷15 號5F
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北市內湖區康寧路三段75巷186弄99號5F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北縣板橋市介壽街79-3號4樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北市八德路四段245巷32弄47號3樓之2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新竹市關東里關東路10號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水鎮大仁街53-2號3樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南投縣竹山鎮集山路三段1525號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">板橋市民生路二段 224 號9F </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北縣三重市忠孝路一段10巷39號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北市士林區美崙街114 號 6樓 (父母家)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市北投區自強街61巷8號五樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,8 +1373,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,8 +1400,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -236,21 +1427,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,196 +1742,2523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.625" customWidth="1"/>
+    <col min="15" max="15" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>620</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:18" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>618</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="7"/>
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1">
-        <v>26696</v>
-      </c>
-      <c r="H2">
-        <v>1234567</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>618</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>219</v>
+      </c>
+      <c r="R3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>618</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="8">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="N4" s="8"/>
+      <c r="P4" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>618</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="N5" s="8"/>
+      <c r="P5" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>618</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="9">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="N6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>618</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="8">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="N7" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>618</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="N8" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>618</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>333</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="N9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>618</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="8">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="N10" s="8"/>
+      <c r="P10" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>618</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="E11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="N11" s="8"/>
+      <c r="P11" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="R11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>618</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="10">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="E12" t="s">
+        <v>333</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="N12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="R12" s="10"/>
+    </row>
+    <row r="13" spans="1:18" ht="99" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>618</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="8">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
+      <c r="E13" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="N13" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="R13" s="8"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>618</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="9">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
+      <c r="E14" t="s">
+        <v>333</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="N14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>618</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="8">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
+      <c r="E15" t="s">
+        <v>333</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="N15" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>618</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="8">
         <v>26</v>
       </c>
-      <c r="R2" t="s">
+      <c r="E16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="N16" s="8"/>
+      <c r="P16" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="R16" s="8"/>
+    </row>
+    <row r="17" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>618</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="8">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>620</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="E17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="N17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="R17" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="66" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>618</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="9">
         <v>28</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E18" t="s">
+        <v>333</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="N18" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="P18" s="9"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>618</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="8">
         <v>29</v>
       </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1">
-        <v>26755</v>
-      </c>
-      <c r="H3">
-        <v>12321</v>
-      </c>
-      <c r="I3">
-        <v>13123</v>
-      </c>
-      <c r="J3">
-        <v>1231321</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="E19" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="N19" s="8"/>
+      <c r="P19" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>618</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="8">
         <v>31</v>
       </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="E20" t="s">
+        <v>333</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="N20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="R20" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>618</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="9">
         <v>32</v>
       </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="E21" t="s">
+        <v>333</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="N21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>618</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>333</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>618</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="9">
         <v>34</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="E23" t="s">
+        <v>333</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="N23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>618</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="8">
         <v>35</v>
       </c>
-      <c r="R3" t="s">
+      <c r="E24" t="s">
+        <v>333</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L24" s="16"/>
+      <c r="N24" s="8"/>
+      <c r="P24" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="R24" s="8"/>
+    </row>
+    <row r="25" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>618</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="8">
         <v>36</v>
       </c>
+      <c r="E25" t="s">
+        <v>333</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>618</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="8">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>333</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="N26" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>618</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="8">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>333</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" s="16"/>
+      <c r="N27" s="8"/>
+      <c r="P27" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="R27" s="8"/>
+    </row>
+    <row r="28" spans="1:18" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>618</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>333</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="R28" s="8"/>
+    </row>
+    <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>618</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="8">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>333</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="L29" s="16"/>
+      <c r="N29" s="8"/>
+      <c r="P29" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>618</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="8">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>333</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="L30" s="16"/>
+      <c r="N30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>618</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>333</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="P31" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="R31" s="8"/>
+    </row>
+    <row r="32" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>618</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="8">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>333</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" s="16"/>
+      <c r="N32" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="R32" s="8"/>
+    </row>
+    <row r="33" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>618</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="8">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>333</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="L33" s="16"/>
+      <c r="N33" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>618</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="8">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>333</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="R34" s="8"/>
+    </row>
+    <row r="35" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>618</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="8">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>333</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="N35" s="8"/>
+      <c r="P35" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="R35" s="8"/>
+    </row>
+    <row r="36" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>618</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s">
+        <v>333</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="R36" s="8"/>
+    </row>
+    <row r="37" spans="1:18" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>618</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="8">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>333</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="L37" s="16"/>
+      <c r="N37" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>618</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="8">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>333</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="N38" s="8"/>
+      <c r="P38" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="R38" s="8"/>
+    </row>
+    <row r="39" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>618</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="8">
+        <v>54</v>
+      </c>
+      <c r="E39" t="s">
+        <v>333</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="L39" s="16"/>
+      <c r="N39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="R39" s="8"/>
+    </row>
+    <row r="40" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>618</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="8">
+        <v>55</v>
+      </c>
+      <c r="E40" t="s">
+        <v>333</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="L40" s="16"/>
+      <c r="N40" s="8"/>
+      <c r="P40" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="R40" s="8"/>
+    </row>
+    <row r="41" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>618</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="8">
+        <v>56</v>
+      </c>
+      <c r="E41" t="s">
+        <v>333</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="L41" s="16"/>
+      <c r="N41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="R41" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>618</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="8">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>333</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="L42" s="16"/>
+      <c r="N42" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P42" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="R42" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>618</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="8">
+        <v>58</v>
+      </c>
+      <c r="E43" t="s">
+        <v>333</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="L43" s="16"/>
+      <c r="N43" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="P43" s="8"/>
+      <c r="R43" s="8"/>
+    </row>
+    <row r="44" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>618</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="8">
+        <v>59</v>
+      </c>
+      <c r="E44" t="s">
+        <v>333</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="N44" s="8"/>
+      <c r="P44" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="R44" s="8"/>
+    </row>
+    <row r="45" spans="1:18" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>618</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="8">
+        <v>61</v>
+      </c>
+      <c r="E45" t="s">
+        <v>333</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="L45" s="16"/>
+      <c r="N45" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>618</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="8">
+        <v>62</v>
+      </c>
+      <c r="E46" t="s">
+        <v>333</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="N46" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="P46" s="8"/>
+      <c r="R46" s="8"/>
+    </row>
+    <row r="47" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>618</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="9">
+        <v>63</v>
+      </c>
+      <c r="E47" t="s">
+        <v>333</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="N47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="R47" s="9"/>
+    </row>
+    <row r="48" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>618</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="9">
+        <v>64</v>
+      </c>
+      <c r="E48" t="s">
+        <v>333</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="N48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="R48" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>618</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="8">
+        <v>65</v>
+      </c>
+      <c r="E49" t="s">
+        <v>333</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="L49" s="16"/>
+      <c r="N49" s="8"/>
+      <c r="P49" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="R49" s="8"/>
+    </row>
+    <row r="50" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>618</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="8">
+        <v>66</v>
+      </c>
+      <c r="E50" t="s">
+        <v>333</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="L50" s="16"/>
+      <c r="N50" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="R50" s="8"/>
+    </row>
+    <row r="51" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>618</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="8">
+        <v>67</v>
+      </c>
+      <c r="E51" t="s">
+        <v>333</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="R51" s="8"/>
+    </row>
+    <row r="52" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>618</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="8">
+        <v>68</v>
+      </c>
+      <c r="E52" t="s">
+        <v>333</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="L52" s="16"/>
+      <c r="N52" s="8"/>
+      <c r="P52" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="R52" s="8"/>
+    </row>
+    <row r="53" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>618</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="8">
+        <v>71</v>
+      </c>
+      <c r="E53" t="s">
+        <v>333</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="L53" s="16"/>
+      <c r="N53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="R53" s="8"/>
+    </row>
+    <row r="54" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>618</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="8">
+        <v>72</v>
+      </c>
+      <c r="E54" t="s">
+        <v>333</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J54" s="8"/>
+      <c r="K54" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="L54" s="16"/>
+      <c r="N54" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="R54" s="8"/>
+    </row>
+    <row r="55" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>618</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="10">
+        <v>73</v>
+      </c>
+      <c r="E55" t="s">
+        <v>333</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="L55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="R55" s="10"/>
+    </row>
+    <row r="56" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>618</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="8">
+        <v>74</v>
+      </c>
+      <c r="E56" t="s">
+        <v>333</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J56" s="8"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="N56" s="8"/>
+      <c r="P56" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="R56" s="8"/>
+    </row>
+    <row r="57" spans="1:18" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>618</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="8">
+        <v>75</v>
+      </c>
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" t="s">
+        <v>333</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="L57" s="16"/>
+      <c r="N57" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="R57" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>618</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="8">
+        <v>76</v>
+      </c>
+      <c r="E58" t="s">
+        <v>333</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="L58" s="16"/>
+      <c r="N58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="R58" s="8"/>
+    </row>
+    <row r="59" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>618</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="8">
+        <v>77</v>
+      </c>
+      <c r="E59" t="s">
+        <v>333</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="L59" s="16"/>
+      <c r="N59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="R59" s="8"/>
+    </row>
+    <row r="60" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>618</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="8">
+        <v>78</v>
+      </c>
+      <c r="E60" t="s">
+        <v>333</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="L60" s="16"/>
+      <c r="N60" s="8"/>
+      <c r="P60" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>618</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="E61" t="s">
+        <v>333</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="L61" s="16"/>
+      <c r="N61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="R61" s="8"/>
+    </row>
+    <row r="62" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>618</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="E62" t="s">
+        <v>333</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="L62" s="16"/>
+      <c r="N62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="R62" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="P63" s="11"/>
+    </row>
+    <row r="64" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="P64" s="11"/>
+    </row>
+    <row r="65" spans="7:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="P65" s="11"/>
+    </row>
+    <row r="66" spans="7:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="P66" s="11"/>
+    </row>
+    <row r="67" spans="7:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="P67" s="11"/>
+    </row>
+    <row r="68" spans="7:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="P68" s="11"/>
+    </row>
+    <row r="69" spans="7:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="P69" s="11"/>
+    </row>
+    <row r="70" spans="7:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="P70" s="11"/>
+    </row>
+    <row r="71" spans="7:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="P71" s="11"/>
+    </row>
+    <row r="72" spans="7:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="P72" s="11"/>
+    </row>
+    <row r="73" spans="7:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="P73" s="11"/>
+    </row>
+    <row r="74" spans="7:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="P74" s="11"/>
+    </row>
+    <row r="75" spans="7:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="P75" s="11"/>
+    </row>
+    <row r="76" spans="7:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="P76" s="11"/>
+    </row>
+    <row r="77" spans="7:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="P77" s="11"/>
+    </row>
+    <row r="78" spans="7:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="P78" s="11"/>
+    </row>
+    <row r="79" spans="7:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="P79" s="11"/>
+    </row>
+    <row r="80" spans="7:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="P80" s="11"/>
+    </row>
+    <row r="81" spans="7:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="P81" s="11"/>
+    </row>
+    <row r="82" spans="7:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="P82" s="12"/>
+    </row>
+    <row r="83" spans="7:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="P83" s="12"/>
+    </row>
+    <row r="84" spans="7:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="P84" s="12"/>
+    </row>
+    <row r="85" spans="7:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="P85" s="12"/>
+    </row>
+    <row r="86" spans="7:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="P86" s="12"/>
+    </row>
+    <row r="87" spans="7:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="P87" s="12"/>
+    </row>
+    <row r="88" spans="7:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="P88" s="12"/>
+    </row>
+    <row r="89" spans="7:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="P89" s="12"/>
+    </row>
+    <row r="90" spans="7:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="P90" s="12"/>
+    </row>
+    <row r="91" spans="7:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="P91" s="12"/>
+    </row>
+    <row r="92" spans="7:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="P92" s="12"/>
+    </row>
+    <row r="93" spans="7:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="P93" s="12"/>
+    </row>
+    <row r="94" spans="7:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="P94" s="12"/>
+    </row>
+    <row r="95" spans="7:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="P95" s="12"/>
+    </row>
+    <row r="96" spans="7:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="P96" s="12"/>
+    </row>
+    <row r="97" spans="8:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="P97" s="12"/>
+    </row>
+    <row r="98" spans="8:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="P98" s="12"/>
+    </row>
+    <row r="99" spans="8:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N99" s="12"/>
+      <c r="P99" s="12"/>
+    </row>
+    <row r="100" spans="8:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N100" s="12"/>
+      <c r="P100" s="12"/>
+    </row>
+    <row r="101" spans="8:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N101" s="12"/>
+      <c r="P101" s="12"/>
+    </row>
+    <row r="102" spans="8:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N102" s="12"/>
+      <c r="P102" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K10" r:id="rId1"/>
+    <hyperlink ref="K15" r:id="rId2"/>
+    <hyperlink ref="K16" r:id="rId3"/>
+    <hyperlink ref="K29" r:id="rId4"/>
+    <hyperlink ref="K52" r:id="rId5"/>
+    <hyperlink ref="K20" r:id="rId6"/>
+    <hyperlink ref="K27" r:id="rId7"/>
+    <hyperlink ref="K51" r:id="rId8"/>
+    <hyperlink ref="K30" r:id="rId9"/>
+    <hyperlink ref="K32" r:id="rId10"/>
+    <hyperlink ref="K34" r:id="rId11"/>
+    <hyperlink ref="K43" r:id="rId12"/>
+    <hyperlink ref="K40" r:id="rId13"/>
+    <hyperlink ref="K41" r:id="rId14"/>
+    <hyperlink ref="K49" r:id="rId15"/>
+    <hyperlink ref="K50" r:id="rId16"/>
+    <hyperlink ref="K57" r:id="rId17"/>
+    <hyperlink ref="K59" r:id="rId18"/>
+    <hyperlink ref="K61" r:id="rId19"/>
+    <hyperlink ref="K33" r:id="rId20"/>
+    <hyperlink ref="K7" r:id="rId21"/>
+    <hyperlink ref="K24" r:id="rId22"/>
+    <hyperlink ref="K62" r:id="rId23"/>
+    <hyperlink ref="K19" r:id="rId24"/>
+    <hyperlink ref="K5" r:id="rId25"/>
+    <hyperlink ref="K6" r:id="rId26"/>
+    <hyperlink ref="K53" r:id="rId27"/>
+    <hyperlink ref="K58" r:id="rId28"/>
+    <hyperlink ref="K37" r:id="rId29"/>
+    <hyperlink ref="K25" r:id="rId30"/>
+    <hyperlink ref="K60" r:id="rId31"/>
+    <hyperlink ref="K22" r:id="rId32"/>
+    <hyperlink ref="K54" r:id="rId33"/>
+    <hyperlink ref="K45" r:id="rId34"/>
+    <hyperlink ref="K28" r:id="rId35"/>
+    <hyperlink ref="K31" r:id="rId36"/>
+    <hyperlink ref="K36" r:id="rId37"/>
+    <hyperlink ref="K3" r:id="rId38"/>
+    <hyperlink ref="K13" r:id="rId39"/>
+    <hyperlink ref="K8" r:id="rId40"/>
+    <hyperlink ref="L25" r:id="rId41"/>
+    <hyperlink ref="L34" r:id="rId42"/>
+    <hyperlink ref="L22" r:id="rId43"/>
+    <hyperlink ref="L36" r:id="rId44"/>
+    <hyperlink ref="L3" r:id="rId45"/>
+    <hyperlink ref="L51" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -696,54 +4269,54 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +4331,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
